--- a/Template_Files/02_HazardAnalysisAndRiskAssessment_Template.xlsx
+++ b/Template_Files/02_HazardAnalysisAndRiskAssessment_Template.xlsx
@@ -1509,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W22" activeCellId="0" sqref="W22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Template_Files/02_HazardAnalysisAndRiskAssessment_Template.xlsx
+++ b/Template_Files/02_HazardAnalysisAndRiskAssessment_Template.xlsx
@@ -215,83 +215,76 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">Limit vibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS02 - Country Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN01 - Normal conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver Removes both hands from steering wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrectly used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal driving on country roads during normal conditions with high speed (the driver is misusing the lane keeping assistance function as an autonomous function) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane Keeping Assistance (LKA) function shall apply the steering torque when active in order to stay in ego lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV03 - Function always activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA does not disable and is used as autonomous driving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle is placed in a situation LKA cannot handle, so it steers incorrectly and causes vehicle to crash into another vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA steers vehicle into another vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempting to use LKA on country roads as autonomous driving is not all that common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot control car when not holding onto steering wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lane keeping assistance function shall be time limited and additional steering torque shall end after given time interval so that the driver cannot misuse the system for autonomous driving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN04 - Snowfall (degraded view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night time + Departing into lane of oncoming vehicle</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Normal Driving on Highway during Snowfall (degraded view) with High speed </t>
+      <t xml:space="preserve">The oscillating steering torque from the lane departure warning system shall be limited
+</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(Night time + Oncoming vehicle)</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HA-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS02 - Country Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN01 - Normal conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Removes both hands from steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrectly used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal driving on country roads during normal conditions with high speed (the driver is misusing the lane keeping assistance function as an autonomous function) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane Keeping Assistance (LKA) function shall apply the steering torque when active in order to stay in ego lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV03 - Function always activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA does not disable and is used as autonomous driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle is placed in a situation LKA cannot handle, so it steers incorrectly and causes vehicle to crash into another vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA steers vehicle into another vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempting to use LKA on country roads as autonomous driving is not all that common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot control car when not holding onto steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lane keeping assistance function shall be time limited and additional steering torque shall end after given time interval so that the driver cannot misuse the system for autonomous driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HA-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN04 - Snowfall (degraded view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night time + Departing into lane of oncoming vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Driving on Highway during Snowfall (degraded view) with High speed (Night time + Oncoming vehicle)</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor sensitivity is too low</t>
@@ -321,7 +314,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Deliver warning in a timely manner</t>
+    <t xml:space="preserve">The maximum time to deliver a warning shall be limited. </t>
   </si>
   <si>
     <t xml:space="preserve">HA-004</t>
@@ -363,7 +356,7 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">Limit lane keeping assistance when heavily braking</t>
+    <t xml:space="preserve">Limit lane keeping assistance shall be disabled under heavy braking conditions. </t>
   </si>
   <si>
     <t xml:space="preserve">EXAMPLE DISCUSSED IN THE PROJECT INSTRUCTIONS - Headlamp System</t>
@@ -938,7 +931,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -993,6 +986,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1173,7 +1178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1254,11 +1259,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,7 +1283,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,7 +1291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,7 +1299,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,23 +1315,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,51 +1343,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,11 +1395,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1410,23 +1419,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1509,8 +1518,8 @@
   </sheetPr>
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,7 +1532,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.99"/>
@@ -1933,7 +1942,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2078,7 @@
       <c r="U13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W13" s="21"/>
@@ -2143,15 +2152,15 @@
       <c r="U14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="V14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -2217,15 +2226,15 @@
       <c r="U15" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="22" t="s">
+      <c r="V15" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H16" s="14"/>
@@ -2272,7 +2281,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.86"/>
@@ -2288,132 +2297,132 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11"/>
@@ -2488,7 +2497,7 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
@@ -2552,172 +2561,172 @@
       <c r="V6" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
@@ -2895,15 +2904,15 @@
       <c r="V14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="W14" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="s">
@@ -2969,15 +2978,15 @@
       <c r="V15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="W15" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14" t="s">
@@ -3043,15 +3052,15 @@
       <c r="V16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="W16" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="s">
@@ -3117,15 +3126,15 @@
       <c r="V17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="W17" s="22" t="s">
+      <c r="W17" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14" t="s">
@@ -3191,15 +3200,15 @@
       <c r="V18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="22" t="s">
+      <c r="W18" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4115,7 +4124,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.43"/>
@@ -4126,7 +4135,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.86"/>
@@ -4142,130 +4151,130 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM01</v>
       </c>
@@ -4275,35 +4284,35 @@
       <c r="C5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
         <v>OM01 - Parked</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="str">
+      <c r="A6" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM02</v>
       </c>
@@ -4313,35 +4322,35 @@
       <c r="C6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
         <v>OM02 - Ignition on</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="str">
+      <c r="A7" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM03</v>
       </c>
@@ -4351,35 +4360,35 @@
       <c r="C7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
         <v>OM03 - Normal driving</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="str">
+      <c r="A8" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM04</v>
       </c>
@@ -4389,35 +4398,35 @@
       <c r="C8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="38" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
         <v>OM04 - Backward driving</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="str">
+      <c r="A9" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM05</v>
       </c>
@@ -4427,35 +4436,35 @@
       <c r="C9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="38" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
         <v>OM05 - Degraded driving</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="str">
+      <c r="A10" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM06</v>
       </c>
@@ -4465,35 +4474,35 @@
       <c r="C10" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="38" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
         <v>OM06 - Towing (active)</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="str">
+      <c r="A11" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM07</v>
       </c>
@@ -4503,35 +4512,35 @@
       <c r="C11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="38" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
         <v>OM07 - Towing (passive)</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="str">
+      <c r="A12" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM08</v>
       </c>
@@ -4541,35 +4550,35 @@
       <c r="C12" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
         <v>OM08 - Service</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="37" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM09</v>
       </c>
@@ -4579,157 +4588,157 @@
       <c r="C13" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
         <v>OM09 - N/A</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="str">
+      <c r="A18" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS01</v>
       </c>
@@ -4739,35 +4748,35 @@
       <c r="C18" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="38" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
         <v>OS01 - Any Road</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="str">
+      <c r="A19" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS02</v>
       </c>
@@ -4777,35 +4786,35 @@
       <c r="C19" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="38" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
         <v>OS02 - City Road</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="str">
+      <c r="A20" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS03</v>
       </c>
@@ -4815,35 +4824,35 @@
       <c r="C20" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="37" t="str">
+      <c r="D20" s="38" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
         <v>OS03 - Country Road</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="str">
+      <c r="A21" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS04</v>
       </c>
@@ -4853,35 +4862,35 @@
       <c r="C21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="38" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
         <v>OS04 - Highway</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="str">
+      <c r="A22" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS05</v>
       </c>
@@ -4891,35 +4900,35 @@
       <c r="C22" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="38" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
         <v>OS05 - Mountain Pass</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="str">
+      <c r="A23" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS06</v>
       </c>
@@ -4929,35 +4938,35 @@
       <c r="C23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="38" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
         <v>OS06 - Off Road</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="str">
+      <c r="A24" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS07</v>
       </c>
@@ -4967,35 +4976,35 @@
       <c r="C24" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="37" t="str">
+      <c r="D24" s="38" t="str">
         <f aca="false">$A24 &amp; " - " &amp; $B24</f>
         <v>OS07 - Road with gradient</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="str">
+      <c r="A25" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS08</v>
       </c>
@@ -5005,35 +5014,35 @@
       <c r="C25" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="38" t="str">
         <f aca="false">$A25 &amp; " - " &amp; $B25</f>
         <v>OS08 - Road with bump</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="str">
+      <c r="A26" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS09</v>
       </c>
@@ -5043,35 +5052,35 @@
       <c r="C26" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="37" t="str">
+      <c r="D26" s="38" t="str">
         <f aca="false">$A26 &amp; " - " &amp; $B26</f>
         <v>OS09 - Road tunnel</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="str">
+      <c r="A27" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS10</v>
       </c>
@@ -5081,35 +5090,35 @@
       <c r="C27" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="37" t="str">
+      <c r="D27" s="38" t="str">
         <f aca="false">$A27 &amp; " - " &amp; $B27</f>
         <v>OS10 - Road with construction site</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="str">
+      <c r="A28" s="37" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS11</v>
       </c>
@@ -5119,157 +5128,157 @@
       <c r="C28" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="37" t="str">
+      <c r="D28" s="38" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
         <v>OS11 - N/A</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="str">
+      <c r="A33" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD01</v>
       </c>
@@ -5279,35 +5288,35 @@
       <c r="C33" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="37" t="str">
+      <c r="D33" s="38" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
         <v>SD01 - Low speed</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36" t="str">
+      <c r="A34" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD02</v>
       </c>
@@ -5317,35 +5326,35 @@
       <c r="C34" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="37" t="str">
+      <c r="D34" s="38" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
         <v>SD02 - High speed</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36" t="str">
+      <c r="A35" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD03</v>
       </c>
@@ -5355,35 +5364,35 @@
       <c r="C35" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="37" t="str">
+      <c r="D35" s="38" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
         <v>SD03 - Normal acceleration</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36" t="str">
+      <c r="A36" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD04</v>
       </c>
@@ -5393,35 +5402,35 @@
       <c r="C36" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="37" t="str">
+      <c r="D36" s="38" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
         <v>SD04 - High acceleration</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="str">
+      <c r="A37" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD05</v>
       </c>
@@ -5431,35 +5440,35 @@
       <c r="C37" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="37" t="str">
+      <c r="D37" s="38" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
         <v>SD05 - Normal braking</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36" t="str">
+      <c r="A38" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD06</v>
       </c>
@@ -5469,35 +5478,35 @@
       <c r="C38" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="37" t="str">
+      <c r="D38" s="38" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
         <v>SD06 - High braking</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="str">
+      <c r="A39" s="37" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD07</v>
       </c>
@@ -5507,157 +5516,157 @@
       <c r="C39" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="37" t="str">
+      <c r="D39" s="38" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
         <v>SD07 - N/A</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36" t="str">
+      <c r="A44" s="37" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU01</v>
       </c>
@@ -5667,35 +5676,35 @@
       <c r="C44" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="37" t="str">
+      <c r="D44" s="38" t="str">
         <f aca="false">$A44 &amp; " - " &amp; $B44</f>
         <v>IU01 - Correctly used</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="36" t="str">
+      <c r="A45" s="37" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU02</v>
       </c>
@@ -5705,35 +5714,35 @@
       <c r="C45" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="37" t="str">
+      <c r="D45" s="38" t="str">
         <f aca="false">$A45 &amp; " - " &amp; $B45</f>
         <v>IU02 - Incorrectly used</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36" t="str">
+      <c r="A46" s="37" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU03</v>
       </c>
@@ -5743,157 +5752,157 @@
       <c r="C46" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="37" t="str">
+      <c r="D46" s="38" t="str">
         <f aca="false">$A46 &amp; " - " &amp; $B46</f>
         <v>IU03 - N/A</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36" t="str">
+      <c r="A51" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN01</v>
       </c>
@@ -5903,35 +5912,35 @@
       <c r="C51" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="37" t="str">
+      <c r="D51" s="38" t="str">
         <f aca="false">$A51 &amp; " - " &amp; $B51</f>
         <v>EN01 - Normal conditions</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36" t="str">
+      <c r="A52" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN02</v>
       </c>
@@ -5941,35 +5950,35 @@
       <c r="C52" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="37" t="str">
+      <c r="D52" s="38" t="str">
         <f aca="false">$A52 &amp; " - " &amp; $B52</f>
         <v>EN02 - Sun blares (degraded view)</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="36" t="str">
+      <c r="A53" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN03</v>
       </c>
@@ -5979,35 +5988,35 @@
       <c r="C53" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D53" s="37" t="str">
+      <c r="D53" s="38" t="str">
         <f aca="false">$A53 &amp; " - " &amp; $B53</f>
         <v>EN03 - Fog (degraded view)</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="str">
+      <c r="A54" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN04</v>
       </c>
@@ -6017,35 +6026,35 @@
       <c r="C54" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="37" t="str">
+      <c r="D54" s="38" t="str">
         <f aca="false">$A54 &amp; " - " &amp; $B54</f>
         <v>EN04 - Snowfall (degraded view)</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36" t="str">
+      <c r="A55" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN05</v>
       </c>
@@ -6055,35 +6064,35 @@
       <c r="C55" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="37" t="str">
+      <c r="D55" s="38" t="str">
         <f aca="false">$A55 &amp; " - " &amp; $B55</f>
         <v>EN05 - Cross-wind (lateral force)</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="str">
+      <c r="A56" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN06</v>
       </c>
@@ -6093,35 +6102,35 @@
       <c r="C56" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="37" t="str">
+      <c r="D56" s="38" t="str">
         <f aca="false">$A56 &amp; " - " &amp; $B56</f>
         <v>EN06 - Rain (slippery road)</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36" t="str">
+      <c r="A57" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN07</v>
       </c>
@@ -6131,35 +6140,35 @@
       <c r="C57" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="37" t="str">
+      <c r="D57" s="38" t="str">
         <f aca="false">$A57 &amp; " - " &amp; $B57</f>
         <v>EN07 - Snow (slippery road)</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="str">
+      <c r="A58" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN08</v>
       </c>
@@ -6169,35 +6178,35 @@
       <c r="C58" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="37" t="str">
+      <c r="D58" s="38" t="str">
         <f aca="false">$A58 &amp; " - " &amp; $B58</f>
         <v>EN08 - Glace (slippery road)</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36" t="str">
+      <c r="A59" s="37" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN09</v>
       </c>
@@ -6207,60 +6216,60 @@
       <c r="C59" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="37" t="str">
+      <c r="D59" s="38" t="str">
         <f aca="false">$A59 &amp; " - " &amp; $B59</f>
         <v>EN09 - N/A</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7198,101 +7207,101 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="str">
+      <c r="A4" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV01</v>
       </c>
@@ -7302,35 +7311,35 @@
       <c r="C4" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="38" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
         <v>DV01 - Function not activated</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV02</v>
       </c>
@@ -7340,35 +7349,35 @@
       <c r="C5" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
         <v>DV02 - Function unexpectedly activated</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="str">
+      <c r="A6" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV03</v>
       </c>
@@ -7378,35 +7387,35 @@
       <c r="C6" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
         <v>DV03 - Function always activated</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="str">
+      <c r="A7" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV04</v>
       </c>
@@ -7416,35 +7425,35 @@
       <c r="C7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
         <v>DV04 - Actor effect is too much</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="str">
+      <c r="A8" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV05</v>
       </c>
@@ -7454,35 +7463,35 @@
       <c r="C8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="38" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
         <v>DV05 - Actor effect is too less</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="str">
+      <c r="A9" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV06</v>
       </c>
@@ -7492,35 +7501,35 @@
       <c r="C9" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="38" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
         <v>DV06 - Actor action too early</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="str">
+      <c r="A10" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV07</v>
       </c>
@@ -7530,35 +7539,35 @@
       <c r="C10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="38" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
         <v>DV07 - Actor action too late</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="str">
+      <c r="A11" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV08</v>
       </c>
@@ -7568,35 +7577,35 @@
       <c r="C11" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="38" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
         <v>DV08 - Actor action before</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="str">
+      <c r="A12" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV09</v>
       </c>
@@ -7606,35 +7615,35 @@
       <c r="C12" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
         <v>DV09 - Actor action after</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV10</v>
       </c>
@@ -7644,35 +7653,35 @@
       <c r="C13" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
         <v>DV10 - Actor effect is reverse</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="str">
+      <c r="A14" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV11</v>
       </c>
@@ -7682,35 +7691,35 @@
       <c r="C14" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="38" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
         <v>DV11 - Actor effect is wrong</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="str">
+      <c r="A15" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV12</v>
       </c>
@@ -7720,35 +7729,35 @@
       <c r="C15" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="38" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
         <v>DV12 - Sensor sensitivity is too high</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="str">
+      <c r="A16" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV13</v>
       </c>
@@ -7758,35 +7767,35 @@
       <c r="C16" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="38" t="str">
         <f aca="false">$A16 &amp; " - " &amp; $B16</f>
         <v>DV13 - Sensor sensitivity is too low</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="str">
+      <c r="A17" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV14</v>
       </c>
@@ -7796,35 +7805,35 @@
       <c r="C17" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="38" t="str">
         <f aca="false">$A17 &amp; " - " &amp; $B17</f>
         <v>DV14 - Sensor detection too early</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="str">
+      <c r="A18" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV15</v>
       </c>
@@ -7834,35 +7843,35 @@
       <c r="C18" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="38" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
         <v>DV15 - Sensor detection too late</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="str">
+      <c r="A19" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV16</v>
       </c>
@@ -7872,35 +7881,35 @@
       <c r="C19" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="38" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
         <v>DV16 - Sensor detection before</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="str">
+      <c r="A20" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV17</v>
       </c>
@@ -7910,35 +7919,35 @@
       <c r="C20" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="37" t="str">
+      <c r="D20" s="38" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
         <v>DV17 - Sensor detection after</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="str">
+      <c r="A21" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV18</v>
       </c>
@@ -7948,35 +7957,35 @@
       <c r="C21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="38" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
         <v>DV18 - Sensor detection is reverse</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="str">
+      <c r="A22" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV19</v>
       </c>
@@ -7986,35 +7995,35 @@
       <c r="C22" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="38" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
         <v>DV19 - Sensor detection is wrong</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="str">
+      <c r="A23" s="37" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV20</v>
       </c>
@@ -8024,686 +8033,686 @@
       <c r="C23" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="38" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
         <v>DV20 - N/A</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="str">
+      <c r="A28" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-07</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49" t="str">
+      <c r="C28" s="49"/>
+      <c r="D28" s="50" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
         <v>EV-07 - None</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46" t="str">
+      <c r="A29" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-06</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49" t="str">
+      <c r="C29" s="49"/>
+      <c r="D29" s="50" t="str">
         <f aca="false">$A29 &amp; " - " &amp; $B29</f>
         <v>EV-06 - Front collision with oncoming traffic</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46" t="str">
+      <c r="A30" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-05</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49" t="str">
+      <c r="C30" s="49"/>
+      <c r="D30" s="50" t="str">
         <f aca="false">$A30 &amp; " - " &amp; $B30</f>
         <v>EV-05 - Front collision with ahead traffic</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="str">
+      <c r="A31" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-04</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49" t="str">
+      <c r="C31" s="49"/>
+      <c r="D31" s="50" t="str">
         <f aca="false">$A31 &amp; " - " &amp; $B31</f>
         <v>EV-04 - Front collision with obstacle</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="str">
+      <c r="A32" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-03</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49" t="str">
+      <c r="C32" s="49"/>
+      <c r="D32" s="50" t="str">
         <f aca="false">$A32 &amp; " - " &amp; $B32</f>
         <v>EV-03 - Rear collision with trailing traffic</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="str">
+      <c r="A33" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-02</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49" t="str">
+      <c r="C33" s="49"/>
+      <c r="D33" s="50" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
         <v>EV-02 - Side collision with other traffic</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="str">
+      <c r="A34" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-01</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49" t="str">
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
         <v>EV-01 - Side collision with obstacle</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="str">
+      <c r="A35" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV00</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49" t="str">
+      <c r="C35" s="49"/>
+      <c r="D35" s="50" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
         <v>EV00 - Collision with other vehicle</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="str">
+      <c r="A36" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV01</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49" t="str">
+      <c r="C36" s="49"/>
+      <c r="D36" s="50" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
         <v>EV01 - Collision with train</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="str">
+      <c r="A37" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV02</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49" t="str">
+      <c r="C37" s="49"/>
+      <c r="D37" s="50" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
         <v>EV02 - Collision with pedestrian</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="str">
+      <c r="A38" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV03</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49" t="str">
+      <c r="C38" s="49"/>
+      <c r="D38" s="50" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
         <v>EV03 - Car spins out of control</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="str">
+      <c r="A39" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV04</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49" t="str">
+      <c r="C39" s="49"/>
+      <c r="D39" s="50" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
         <v>EV04 - Car comes off the road</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="str">
+      <c r="A40" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV05</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49" t="str">
+      <c r="C40" s="49"/>
+      <c r="D40" s="50" t="str">
         <f aca="false">$A40 &amp; " - " &amp; $B40</f>
         <v>EV05 - Car catches file</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="str">
+      <c r="A41" s="47" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV06</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49" t="str">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="str">
         <f aca="false">$A41 &amp; " - " &amp; $B41</f>
         <v>EV06 - N/A</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -8732,81 +8741,81 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="51.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="51.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>246</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -8814,34 +8823,34 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="37" t="str">
+      <c r="E3" s="38" t="str">
         <f aca="false">$A3 &amp; " - " &amp; $B3</f>
         <v>E0 - Incredible</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -8853,34 +8862,34 @@
       <c r="D4" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="E4" s="38" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
         <v>E1 - Very low probability</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -8892,34 +8901,34 @@
       <c r="D5" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
         <v>E2 - Low probability</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -8931,34 +8940,34 @@
       <c r="D6" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="37" t="str">
+      <c r="E6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
         <v>E3 - Medium probability</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -8970,158 +8979,158 @@
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="E7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
         <v>E4 - High probability</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>262</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -9133,34 +9142,34 @@
       <c r="D12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
         <v>S0 - No injuries</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>265</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -9172,34 +9181,34 @@
       <c r="D13" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="E13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
         <v>S1 - Light and moderate injuries</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>268</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -9211,34 +9220,34 @@
       <c r="D14" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="E14" s="38" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
         <v>S2 - Severe and life-threatening injuries</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -9250,329 +9259,329 @@
       <c r="D15" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="E15" s="38" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
         <v>S3 - Life-threatening or fatal injuries</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="35" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>276</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="37" t="str">
+      <c r="D20" s="57"/>
+      <c r="E20" s="38" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
         <v>C0 - Controllable in general</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>278</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="37" t="str">
+      <c r="D21" s="57"/>
+      <c r="E21" s="38" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
         <v>C1 - Simply controllable</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="37" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="38" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
         <v>C2 - Normally controllable</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="37" t="str">
+      <c r="D23" s="57"/>
+      <c r="E23" s="38" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
         <v>C3 - Difficult to control or uncontrollable</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9602,254 +9611,254 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="64" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="64" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="64" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>95</v>
       </c>
     </row>
